--- a/doc/1130807-Cebu 2 Wave 44 Training Logins and Accounts.xlsx
+++ b/doc/1130807-Cebu 2 Wave 44 Training Logins and Accounts.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyberschmooze\Documents\Github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -20,8 +15,8 @@
     <sheet name="BIC" sheetId="9" r:id="rId6"/>
     <sheet name="Updates" sheetId="12" r:id="rId7"/>
     <sheet name="Notes" sheetId="6" r:id="rId8"/>
-    <sheet name="Logins" sheetId="2" r:id="rId9"/>
-    <sheet name="TrainingAccounts" sheetId="3" r:id="rId10"/>
+    <sheet name="Logins" sheetId="2" state="hidden" r:id="rId9"/>
+    <sheet name="TrainingAccounts" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Logins!$A$7:$L$85</definedName>
@@ -4231,10 +4226,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5891,238 +5893,238 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -6130,706 +6132,632 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="64" fillId="20" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="84" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="19" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="19" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="17" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="17" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="17" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="15" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="20" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="85" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="83" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="84" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="14" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="14" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="16" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="68" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="69" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="72" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="69" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="14" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="19" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="19" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="82" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6838,52 +6766,126 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7677,7 +7679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7692,7 +7694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,18 +8150,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="160" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="194" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="327"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="159" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="328" t="s">
+      <c r="D1" s="196" t="s">
         <v>590</v>
       </c>
-      <c r="E1" s="329"/>
-      <c r="F1" s="330"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="198"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="161" t="s">
@@ -8718,7 +8720,7 @@
       <c r="F36" s="173"/>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="375" t="s">
         <v>721</v>
       </c>
       <c r="B37" s="173"/>
@@ -8726,13 +8728,13 @@
       <c r="D37" s="178" t="s">
         <v>705</v>
       </c>
-      <c r="E37" s="184" t="s">
+      <c r="E37" s="183" t="s">
         <v>722</v>
       </c>
       <c r="F37" s="173"/>
     </row>
     <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="185" t="s">
+      <c r="A38" s="184" t="s">
         <v>723</v>
       </c>
       <c r="B38" s="173"/>
@@ -8771,7 +8773,7 @@
       <c r="A41" s="175" t="s">
         <v>728</v>
       </c>
-      <c r="B41" s="186"/>
+      <c r="B41" s="185"/>
       <c r="C41" s="174"/>
       <c r="D41" s="175" t="s">
         <v>729</v>
@@ -8832,7 +8834,7 @@
       <c r="D45" s="175" t="s">
         <v>741</v>
       </c>
-      <c r="E45" s="187" t="s">
+      <c r="E45" s="186" t="s">
         <v>742</v>
       </c>
       <c r="F45" s="173"/>
@@ -8844,7 +8846,7 @@
       <c r="B46" s="173"/>
       <c r="C46" s="174"/>
       <c r="D46" s="175"/>
-      <c r="E46" s="187" t="s">
+      <c r="E46" s="186" t="s">
         <v>744</v>
       </c>
       <c r="F46" s="173"/>
@@ -8858,7 +8860,7 @@
       <c r="D47" s="164" t="s">
         <v>746</v>
       </c>
-      <c r="E47" s="187" t="s">
+      <c r="E47" s="186" t="s">
         <v>747</v>
       </c>
       <c r="F47" s="173"/>
@@ -8872,7 +8874,7 @@
       <c r="D48" s="175" t="s">
         <v>749</v>
       </c>
-      <c r="E48" s="187" t="s">
+      <c r="E48" s="186" t="s">
         <v>750</v>
       </c>
       <c r="F48" s="173"/>
@@ -8886,7 +8888,7 @@
       <c r="D49" s="175" t="s">
         <v>752</v>
       </c>
-      <c r="E49" s="187" t="s">
+      <c r="E49" s="186" t="s">
         <v>753</v>
       </c>
       <c r="F49" s="173"/>
@@ -8898,7 +8900,7 @@
       <c r="B50" s="173"/>
       <c r="C50" s="174"/>
       <c r="D50" s="175"/>
-      <c r="E50" s="187" t="s">
+      <c r="E50" s="186" t="s">
         <v>755</v>
       </c>
       <c r="F50" s="173"/>
@@ -8910,7 +8912,7 @@
       <c r="B51" s="173"/>
       <c r="C51" s="174"/>
       <c r="D51" s="175"/>
-      <c r="E51" s="187" t="s">
+      <c r="E51" s="186" t="s">
         <v>757</v>
       </c>
       <c r="F51" s="173"/>
@@ -8934,12 +8936,12 @@
       <c r="F53" s="173"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="188"/>
-      <c r="B54" s="189"/>
-      <c r="C54" s="190"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="189"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="188"/>
+      <c r="C54" s="189"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8994,20 +8996,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="368" t="s">
+      <c r="A2" s="370" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="368"/>
+      <c r="B2" s="370"/>
       <c r="C2" s="60" t="s">
         <v>308</v>
       </c>
       <c r="D2" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="368" t="s">
+      <c r="E2" s="370" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="368"/>
+      <c r="F2" s="370"/>
       <c r="G2" s="60" t="s">
         <v>308</v>
       </c>
@@ -9015,16 +9017,16 @@
         <v>309</v>
       </c>
       <c r="I2" s="42"/>
-      <c r="J2" s="366" t="s">
+      <c r="J2" s="368" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="368"/>
-      <c r="L2" s="367"/>
+      <c r="K2" s="370"/>
+      <c r="L2" s="369"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="366" t="s">
+      <c r="N2" s="368" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="367"/>
+      <c r="O2" s="369"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -9223,11 +9225,11 @@
       </c>
       <c r="H8" s="76"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="366" t="s">
+      <c r="J8" s="368" t="s">
         <v>299</v>
       </c>
-      <c r="K8" s="368"/>
-      <c r="L8" s="367"/>
+      <c r="K8" s="370"/>
+      <c r="L8" s="369"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -9348,11 +9350,11 @@
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="366" t="s">
+      <c r="J12" s="368" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="368"/>
-      <c r="L12" s="367"/>
+      <c r="K12" s="370"/>
+      <c r="L12" s="369"/>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -9535,11 +9537,11 @@
         <v>5170102418</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="369" t="s">
+      <c r="J18" s="371" t="s">
         <v>301</v>
       </c>
-      <c r="K18" s="370"/>
-      <c r="L18" s="371"/>
+      <c r="K18" s="372"/>
+      <c r="L18" s="373"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9561,14 +9563,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="363" t="s">
+      <c r="A20" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="364"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="364"/>
-      <c r="F20" s="365"/>
+      <c r="B20" s="366"/>
+      <c r="C20" s="366"/>
+      <c r="D20" s="366"/>
+      <c r="E20" s="366"/>
+      <c r="F20" s="367"/>
       <c r="G20" s="23"/>
       <c r="H20" s="21"/>
       <c r="I20" s="12"/>
@@ -9593,10 +9595,10 @@
       <c r="B21" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="372" t="s">
+      <c r="C21" s="374" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="372"/>
+      <c r="D21" s="374"/>
       <c r="E21" s="68" t="s">
         <v>1</v>
       </c>
@@ -9627,19 +9629,19 @@
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="373">
+      <c r="C22" s="363">
         <v>322993637880618</v>
       </c>
-      <c r="D22" s="373"/>
+      <c r="D22" s="363"/>
       <c r="E22" s="21">
         <v>5134602605</v>
       </c>
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="373">
+      <c r="C23" s="363">
         <v>322993537880618</v>
       </c>
-      <c r="D23" s="373"/>
+      <c r="D23" s="363"/>
       <c r="E23" s="21">
         <v>5134602604</v>
       </c>
@@ -9659,10 +9661,10 @@
       <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="374" t="s">
+      <c r="C26" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="374"/>
+      <c r="D26" s="362"/>
       <c r="E26" s="10" t="s">
         <v>1</v>
       </c>
@@ -9674,19 +9676,19 @@
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="373">
+      <c r="C27" s="363">
         <v>322993837880618</v>
       </c>
-      <c r="D27" s="373"/>
+      <c r="D27" s="363"/>
       <c r="E27" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="373">
+      <c r="C28" s="363">
         <v>322993937880618</v>
       </c>
-      <c r="D28" s="373"/>
+      <c r="D28" s="363"/>
       <c r="E28" s="21" t="s">
         <v>3</v>
       </c>
@@ -9706,10 +9708,10 @@
       <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="374" t="s">
+      <c r="C31" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="374"/>
+      <c r="D31" s="362"/>
       <c r="E31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9721,19 +9723,19 @@
       <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="373" t="s">
+      <c r="C32" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="373"/>
+      <c r="D32" s="363"/>
       <c r="E32" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="373" t="s">
+      <c r="C33" s="363" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="373"/>
+      <c r="D33" s="363"/>
       <c r="E33" s="21" t="s">
         <v>7</v>
       </c>
@@ -9753,10 +9755,10 @@
       <c r="B36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="374" t="s">
+      <c r="C36" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="374"/>
+      <c r="D36" s="362"/>
       <c r="E36" s="10" t="s">
         <v>1</v>
       </c>
@@ -9768,19 +9770,19 @@
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="373" t="s">
+      <c r="C37" s="363" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="373"/>
+      <c r="D37" s="363"/>
       <c r="E37" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="373" t="s">
+      <c r="C38" s="363" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="373"/>
+      <c r="D38" s="363"/>
       <c r="E38" s="21" t="s">
         <v>11</v>
       </c>
@@ -9800,10 +9802,10 @@
       <c r="B41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="374" t="s">
+      <c r="C41" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="374"/>
+      <c r="D41" s="362"/>
       <c r="E41" s="10" t="s">
         <v>1</v>
       </c>
@@ -9815,19 +9817,19 @@
       <c r="B42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="373" t="s">
+      <c r="C42" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="373"/>
+      <c r="D42" s="363"/>
       <c r="E42" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="373" t="s">
+      <c r="C43" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="373"/>
+      <c r="D43" s="363"/>
       <c r="E43" s="21" t="s">
         <v>15</v>
       </c>
@@ -9847,10 +9849,10 @@
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="374" t="s">
+      <c r="C46" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="374"/>
+      <c r="D46" s="362"/>
       <c r="E46" s="10" t="s">
         <v>1</v>
       </c>
@@ -9862,19 +9864,19 @@
       <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="373" t="s">
+      <c r="C47" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="373"/>
+      <c r="D47" s="363"/>
       <c r="E47" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="373" t="s">
+      <c r="C48" s="363" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="373"/>
+      <c r="D48" s="363"/>
       <c r="E48" s="21" t="s">
         <v>19</v>
       </c>
@@ -9894,10 +9896,10 @@
       <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="374" t="s">
+      <c r="C51" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="374"/>
+      <c r="D51" s="362"/>
       <c r="E51" s="10" t="s">
         <v>1</v>
       </c>
@@ -9909,19 +9911,19 @@
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="373" t="s">
+      <c r="C52" s="363" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="373"/>
+      <c r="D52" s="363"/>
       <c r="E52" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="373" t="s">
+      <c r="C53" s="363" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="373"/>
+      <c r="D53" s="363"/>
       <c r="E53" s="21" t="s">
         <v>23</v>
       </c>
@@ -9941,10 +9943,10 @@
       <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="374" t="s">
+      <c r="C56" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="374"/>
+      <c r="D56" s="362"/>
       <c r="E56" s="10" t="s">
         <v>1</v>
       </c>
@@ -9956,19 +9958,19 @@
       <c r="B57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="373" t="s">
+      <c r="C57" s="363" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="373"/>
+      <c r="D57" s="363"/>
       <c r="E57" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="373" t="s">
+      <c r="C58" s="363" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="373"/>
+      <c r="D58" s="363"/>
       <c r="E58" s="21" t="s">
         <v>27</v>
       </c>
@@ -9988,10 +9990,10 @@
       <c r="B61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="374" t="s">
+      <c r="C61" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="374"/>
+      <c r="D61" s="362"/>
       <c r="E61" s="10" t="s">
         <v>1</v>
       </c>
@@ -10003,19 +10005,19 @@
       <c r="B62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="373" t="s">
+      <c r="C62" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="373"/>
+      <c r="D62" s="363"/>
       <c r="E62" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="373" t="s">
+      <c r="C63" s="363" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="373"/>
+      <c r="D63" s="363"/>
       <c r="E63" s="21" t="s">
         <v>31</v>
       </c>
@@ -10035,10 +10037,10 @@
       <c r="B66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="374" t="s">
+      <c r="C66" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="374"/>
+      <c r="D66" s="362"/>
       <c r="E66" s="10" t="s">
         <v>1</v>
       </c>
@@ -10050,19 +10052,19 @@
       <c r="B67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="373" t="s">
+      <c r="C67" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="373"/>
+      <c r="D67" s="363"/>
       <c r="E67" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="373" t="s">
+      <c r="C68" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="373"/>
+      <c r="D68" s="363"/>
       <c r="E68" s="21" t="s">
         <v>35</v>
       </c>
@@ -10082,10 +10084,10 @@
       <c r="B71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="374" t="s">
+      <c r="C71" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="374"/>
+      <c r="D71" s="362"/>
       <c r="E71" s="10" t="s">
         <v>1</v>
       </c>
@@ -10097,19 +10099,19 @@
       <c r="B72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="373" t="s">
+      <c r="C72" s="363" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="373"/>
+      <c r="D72" s="363"/>
       <c r="E72" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="373" t="s">
+      <c r="C73" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="373"/>
+      <c r="D73" s="363"/>
       <c r="E73" s="21" t="s">
         <v>39</v>
       </c>
@@ -10217,10 +10219,10 @@
       <c r="B86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="374" t="s">
+      <c r="C86" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="374"/>
+      <c r="D86" s="362"/>
       <c r="E86" s="10" t="s">
         <v>1</v>
       </c>
@@ -10232,10 +10234,10 @@
       <c r="B87" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="373">
+      <c r="C87" s="363">
         <v>322996237880618</v>
       </c>
-      <c r="D87" s="373"/>
+      <c r="D87" s="363"/>
       <c r="E87" s="21">
         <v>5134602631</v>
       </c>
@@ -10254,10 +10256,10 @@
       <c r="B88" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="373">
+      <c r="C88" s="363">
         <v>322992937880618</v>
       </c>
-      <c r="D88" s="373"/>
+      <c r="D88" s="363"/>
       <c r="E88" s="21">
         <v>5134602598</v>
       </c>
@@ -10279,10 +10281,10 @@
       <c r="B89" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="362">
+      <c r="C89" s="364">
         <v>323862500361602</v>
       </c>
-      <c r="D89" s="362"/>
+      <c r="D89" s="364"/>
       <c r="E89" s="21">
         <v>5134611346</v>
       </c>
@@ -10301,10 +10303,10 @@
       <c r="B91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="374" t="s">
+      <c r="C91" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="374"/>
+      <c r="D91" s="362"/>
       <c r="E91" s="10" t="s">
         <v>1</v>
       </c>
@@ -10316,19 +10318,19 @@
       <c r="B92" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="373" t="s">
+      <c r="C92" s="363" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="373"/>
+      <c r="D92" s="363"/>
       <c r="E92" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="373" t="s">
+      <c r="C93" s="363" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="373"/>
+      <c r="D93" s="363"/>
       <c r="E93" s="21" t="s">
         <v>51</v>
       </c>
@@ -10348,10 +10350,10 @@
       <c r="B96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="374" t="s">
+      <c r="C96" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="374"/>
+      <c r="D96" s="362"/>
       <c r="E96" s="10" t="s">
         <v>1</v>
       </c>
@@ -10363,19 +10365,19 @@
       <c r="B97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="373" t="s">
+      <c r="C97" s="363" t="s">
         <v>52</v>
       </c>
-      <c r="D97" s="373"/>
+      <c r="D97" s="363"/>
       <c r="E97" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="373" t="s">
+      <c r="C98" s="363" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="373"/>
+      <c r="D98" s="363"/>
       <c r="E98" s="21" t="s">
         <v>55</v>
       </c>
@@ -10395,10 +10397,10 @@
       <c r="B101" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="374" t="s">
+      <c r="C101" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="374"/>
+      <c r="D101" s="362"/>
       <c r="E101" s="10" t="s">
         <v>1</v>
       </c>
@@ -10410,19 +10412,19 @@
       <c r="B102" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="373" t="s">
+      <c r="C102" s="363" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="373"/>
+      <c r="D102" s="363"/>
       <c r="E102" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="373" t="s">
+      <c r="C103" s="363" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="373"/>
+      <c r="D103" s="363"/>
       <c r="E103" s="21" t="s">
         <v>59</v>
       </c>
@@ -10618,10 +10620,10 @@
       <c r="B126" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C126" s="374" t="s">
+      <c r="C126" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="374"/>
+      <c r="D126" s="362"/>
       <c r="E126" s="10" t="s">
         <v>1</v>
       </c>
@@ -10633,19 +10635,19 @@
       <c r="B127" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="373" t="s">
+      <c r="C127" s="363" t="s">
         <v>76</v>
       </c>
-      <c r="D127" s="373"/>
+      <c r="D127" s="363"/>
       <c r="E127" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="373" t="s">
+      <c r="C128" s="363" t="s">
         <v>78</v>
       </c>
-      <c r="D128" s="373"/>
+      <c r="D128" s="363"/>
       <c r="E128" s="21" t="s">
         <v>79</v>
       </c>
@@ -10709,10 +10711,10 @@
       <c r="B136" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C136" s="374" t="s">
+      <c r="C136" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="D136" s="374"/>
+      <c r="D136" s="362"/>
       <c r="E136" s="10" t="s">
         <v>1</v>
       </c>
@@ -10724,19 +10726,19 @@
       <c r="B137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="373" t="s">
+      <c r="C137" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="373"/>
+      <c r="D137" s="363"/>
       <c r="E137" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="373" t="s">
+      <c r="C138" s="363" t="s">
         <v>86</v>
       </c>
-      <c r="D138" s="373"/>
+      <c r="D138" s="363"/>
       <c r="E138" s="21" t="s">
         <v>87</v>
       </c>
@@ -10775,17 +10777,39 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C56:D56"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
@@ -10802,39 +10826,17 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Logins!A1" tooltip="Logins" display="Logins"/>
@@ -11132,14 +11134,14 @@
   </cols>
   <sheetData>
     <row r="34" spans="15:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="O34" s="325" t="s">
+      <c r="O34" s="199" t="s">
         <v>585</v>
       </c>
-      <c r="P34" s="325"/>
-      <c r="Q34" s="325"/>
-      <c r="R34" s="325"/>
-      <c r="S34" s="325"/>
-      <c r="T34" s="325"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="199"/>
+      <c r="R34" s="199"/>
+      <c r="S34" s="199"/>
+      <c r="T34" s="199"/>
     </row>
     <row r="58" spans="15:36" x14ac:dyDescent="0.25">
       <c r="Z58" s="154"/>
@@ -11453,26 +11455,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="200" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="139"/>
@@ -11673,7 +11675,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="375" t="s">
+      <c r="B24" s="193" t="s">
         <v>760</v>
       </c>
     </row>
@@ -11723,170 +11725,170 @@
       <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5" s="91" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="A2" s="273"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
     </row>
     <row r="3" spans="1:5" s="52" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="222" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
       <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="274" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
       <c r="E4" s="80" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="254" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="124" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="254" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="124" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="254" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="125" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="93"/>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
       <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="268" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
       <c r="E9" s="105" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="268" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
       <c r="E10" s="105" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="271" t="s">
         <v>353</v>
       </c>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="272"/>
       <c r="E11" s="106"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="256" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="105" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="230" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="107"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
       <c r="E14" s="105" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="259" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
       <c r="E15" s="108"/>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="94"/>
-      <c r="B16" s="221" t="s">
+      <c r="B16" s="261" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
+      <c r="C16" s="262"/>
+      <c r="D16" s="262"/>
       <c r="E16" s="81" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94"/>
-      <c r="B17" s="225"/>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
       <c r="E17" s="90"/>
     </row>
     <row r="18" spans="1:5" s="52" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="92"/>
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="222" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
       <c r="E18" s="98" t="s">
         <v>408</v>
       </c>
@@ -11904,236 +11906,236 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="264" t="s">
         <v>365</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
       <c r="E20" s="110"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="224" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
       <c r="E21" s="99" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="208" t="s">
         <v>409</v>
       </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="100" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="208" t="s">
         <v>410</v>
       </c>
-      <c r="C23" s="224"/>
-      <c r="D23" s="224"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="100" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
       <c r="E24" s="100" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="100" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="101" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="100" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="100" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
       <c r="E29" s="100" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="211"/>
       <c r="E30" s="100" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
-      <c r="B31" s="261" t="s">
+      <c r="B31" s="212" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="262"/>
-      <c r="D31" s="262"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="102" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="208" t="s">
         <v>414</v>
       </c>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
       <c r="E32" s="100" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
       <c r="E33" s="100" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
-      <c r="B34" s="223"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
       <c r="E34" s="100" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
-      <c r="B35" s="212" t="s">
+      <c r="B35" s="252" t="s">
         <v>415</v>
       </c>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
+      <c r="C35" s="253"/>
+      <c r="D35" s="253"/>
       <c r="E35" s="103" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
-      <c r="B36" s="214" t="s">
+      <c r="B36" s="224" t="s">
         <v>398</v>
       </c>
-      <c r="C36" s="215"/>
-      <c r="D36" s="215"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="111" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="92"/>
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="254" t="s">
         <v>324</v>
       </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="195"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
       <c r="E37" s="100" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
       <c r="E38" s="100" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="92"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="211"/>
+      <c r="D39" s="211"/>
       <c r="E39" s="100" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
-      <c r="B40" s="208"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="211"/>
       <c r="E40" s="100" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="211"/>
       <c r="E41" s="100" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93"/>
-      <c r="B42" s="210"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="211"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="112"/>
     </row>
     <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93"/>
-      <c r="B43" s="204" t="s">
+      <c r="B43" s="222" t="s">
         <v>402</v>
       </c>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="223"/>
       <c r="E43" s="85"/>
     </row>
     <row r="44" spans="1:5" s="53" customFormat="1" x14ac:dyDescent="0.2">
@@ -12149,472 +12151,472 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
-      <c r="B45" s="267" t="s">
+      <c r="B45" s="228" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="268"/>
-      <c r="D45" s="268"/>
+      <c r="C45" s="229"/>
+      <c r="D45" s="229"/>
       <c r="E45" s="116" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
-      <c r="B46" s="196" t="s">
+      <c r="B46" s="230" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
       <c r="E46" s="107"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="218" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
       <c r="E47" s="100" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="218" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="219"/>
       <c r="E48" s="102" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="20" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="92"/>
-      <c r="B49" s="210"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="112"/>
     </row>
     <row r="50" spans="1:5" s="52" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
-      <c r="B50" s="204" t="s">
+      <c r="B50" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="C50" s="205"/>
-      <c r="D50" s="205"/>
+      <c r="C50" s="223"/>
+      <c r="D50" s="223"/>
       <c r="E50" s="86"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
-      <c r="B51" s="260" t="s">
+      <c r="B51" s="207" t="s">
         <v>399</v>
       </c>
-      <c r="C51" s="260"/>
-      <c r="D51" s="260"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="207"/>
       <c r="E51" s="22" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
-      <c r="B52" s="260"/>
-      <c r="C52" s="260"/>
-      <c r="D52" s="260"/>
+      <c r="B52" s="207"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
       <c r="E52" s="22" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
-      <c r="B53" s="214" t="s">
+      <c r="B53" s="224" t="s">
         <v>349</v>
       </c>
-      <c r="C53" s="215"/>
-      <c r="D53" s="215"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
       <c r="E53" s="111" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
-      <c r="B54" s="263"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="264"/>
+      <c r="B54" s="214"/>
+      <c r="C54" s="215"/>
+      <c r="D54" s="215"/>
       <c r="E54" s="103" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="92"/>
-      <c r="B55" s="265" t="s">
+      <c r="B55" s="216" t="s">
         <v>391</v>
       </c>
-      <c r="C55" s="266"/>
-      <c r="D55" s="266"/>
+      <c r="C55" s="217"/>
+      <c r="D55" s="217"/>
       <c r="E55" s="113" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="92"/>
-      <c r="B56" s="256"/>
-      <c r="C56" s="257"/>
-      <c r="D56" s="257"/>
+      <c r="B56" s="201"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
       <c r="E56" s="102" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="92"/>
-      <c r="B57" s="258"/>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
+      <c r="B57" s="203"/>
+      <c r="C57" s="204"/>
+      <c r="D57" s="204"/>
       <c r="E57" s="102" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="20" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="92"/>
-      <c r="B58" s="236" t="s">
+      <c r="B58" s="205" t="s">
         <v>416</v>
       </c>
-      <c r="C58" s="237"/>
-      <c r="D58" s="237"/>
+      <c r="C58" s="206"/>
+      <c r="D58" s="206"/>
       <c r="E58" s="102" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="20" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="92"/>
-      <c r="B59" s="236" t="s">
+      <c r="B59" s="205" t="s">
         <v>417</v>
       </c>
-      <c r="C59" s="237"/>
-      <c r="D59" s="237"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="206"/>
       <c r="E59" s="102" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="20" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="92"/>
-      <c r="B60" s="236" t="s">
+      <c r="B60" s="205" t="s">
         <v>418</v>
       </c>
-      <c r="C60" s="237"/>
-      <c r="D60" s="237"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="206"/>
       <c r="E60" s="102" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="92"/>
-      <c r="B61" s="238" t="s">
+      <c r="B61" s="244" t="s">
         <v>419</v>
       </c>
-      <c r="C61" s="239"/>
-      <c r="D61" s="239"/>
+      <c r="C61" s="245"/>
+      <c r="D61" s="245"/>
       <c r="E61" s="114" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="92"/>
-      <c r="B62" s="240" t="s">
+      <c r="B62" s="246" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="241"/>
-      <c r="D62" s="241"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="247"/>
       <c r="E62" s="81" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="92"/>
-      <c r="B63" s="242" t="s">
+      <c r="B63" s="248" t="s">
         <v>393</v>
       </c>
-      <c r="C63" s="243"/>
-      <c r="D63" s="243"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="249"/>
       <c r="E63" s="81" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="20" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="92"/>
-      <c r="B64" s="244" t="s">
+      <c r="B64" s="250" t="s">
         <v>464</v>
       </c>
-      <c r="C64" s="245"/>
-      <c r="D64" s="245"/>
+      <c r="C64" s="251"/>
+      <c r="D64" s="251"/>
       <c r="E64" s="82" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="53" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="95"/>
-      <c r="B65" s="232" t="s">
+      <c r="B65" s="240" t="s">
         <v>368</v>
       </c>
-      <c r="C65" s="233"/>
-      <c r="D65" s="233"/>
+      <c r="C65" s="241"/>
+      <c r="D65" s="241"/>
       <c r="E65" s="119" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93"/>
-      <c r="B66" s="234"/>
-      <c r="C66" s="235"/>
-      <c r="D66" s="235"/>
+      <c r="B66" s="242"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="243"/>
       <c r="E66" s="120"/>
     </row>
     <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93"/>
-      <c r="B67" s="204" t="s">
+      <c r="B67" s="222" t="s">
         <v>404</v>
       </c>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="C67" s="223"/>
+      <c r="D67" s="223"/>
       <c r="E67" s="85"/>
     </row>
     <row r="68" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
-      <c r="B68" s="246" t="s">
+      <c r="B68" s="233" t="s">
         <v>346</v>
       </c>
-      <c r="C68" s="247"/>
-      <c r="D68" s="247"/>
+      <c r="C68" s="234"/>
+      <c r="D68" s="234"/>
       <c r="E68" s="115" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
-      <c r="B69" s="248"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
+      <c r="B69" s="218"/>
+      <c r="C69" s="219"/>
+      <c r="D69" s="219"/>
       <c r="E69" s="102" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93"/>
-      <c r="B70" s="210"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
       <c r="E70" s="112"/>
     </row>
     <row r="71" spans="1:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93"/>
-      <c r="B71" s="204" t="s">
+      <c r="B71" s="222" t="s">
         <v>405</v>
       </c>
-      <c r="C71" s="205"/>
-      <c r="D71" s="205"/>
+      <c r="C71" s="223"/>
+      <c r="D71" s="223"/>
       <c r="E71" s="86"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
-      <c r="B72" s="250" t="s">
+      <c r="B72" s="235" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="251"/>
-      <c r="D72" s="251"/>
+      <c r="C72" s="236"/>
+      <c r="D72" s="236"/>
       <c r="E72" s="79" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93"/>
-      <c r="B73" s="252" t="s">
+      <c r="B73" s="237" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="253"/>
-      <c r="D73" s="253"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="238"/>
       <c r="E73" s="83" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="96"/>
-      <c r="B74" s="254"/>
-      <c r="C74" s="254"/>
-      <c r="D74" s="254"/>
+      <c r="B74" s="239"/>
+      <c r="C74" s="239"/>
+      <c r="D74" s="239"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="97"/>
-      <c r="B75" s="255"/>
-      <c r="C75" s="255"/>
-      <c r="D75" s="255"/>
+      <c r="B75" s="232"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="232"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="97"/>
-      <c r="B76" s="255"/>
-      <c r="C76" s="255"/>
-      <c r="D76" s="255"/>
+      <c r="B76" s="232"/>
+      <c r="C76" s="232"/>
+      <c r="D76" s="232"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="97"/>
-      <c r="B77" s="255"/>
-      <c r="C77" s="255"/>
-      <c r="D77" s="255"/>
+      <c r="B77" s="232"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="232"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="97"/>
-      <c r="B78" s="255"/>
-      <c r="C78" s="255"/>
-      <c r="D78" s="255"/>
+      <c r="B78" s="232"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="232"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="97"/>
-      <c r="B79" s="255"/>
-      <c r="C79" s="255"/>
-      <c r="D79" s="255"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="232"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="97"/>
-      <c r="B80" s="255"/>
-      <c r="C80" s="255"/>
-      <c r="D80" s="255"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="232"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="97"/>
-      <c r="B81" s="255"/>
-      <c r="C81" s="255"/>
-      <c r="D81" s="255"/>
+      <c r="B81" s="232"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="232"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="97"/>
-      <c r="B82" s="255"/>
-      <c r="C82" s="255"/>
-      <c r="D82" s="255"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="232"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="97"/>
-      <c r="B83" s="255"/>
-      <c r="C83" s="255"/>
-      <c r="D83" s="255"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="97"/>
-      <c r="B84" s="255"/>
-      <c r="C84" s="255"/>
-      <c r="D84" s="255"/>
+      <c r="B84" s="232"/>
+      <c r="C84" s="232"/>
+      <c r="D84" s="232"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="97"/>
-      <c r="B85" s="255"/>
-      <c r="C85" s="255"/>
-      <c r="D85" s="255"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
+      <c r="D85" s="232"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="97"/>
-      <c r="B86" s="255"/>
-      <c r="C86" s="255"/>
-      <c r="D86" s="255"/>
+      <c r="B86" s="232"/>
+      <c r="C86" s="232"/>
+      <c r="D86" s="232"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="97"/>
-      <c r="B87" s="255"/>
-      <c r="C87" s="255"/>
-      <c r="D87" s="255"/>
+      <c r="B87" s="232"/>
+      <c r="C87" s="232"/>
+      <c r="D87" s="232"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="97"/>
-      <c r="B88" s="255"/>
-      <c r="C88" s="255"/>
-      <c r="D88" s="255"/>
+      <c r="B88" s="232"/>
+      <c r="C88" s="232"/>
+      <c r="D88" s="232"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="97"/>
-      <c r="B89" s="255"/>
-      <c r="C89" s="255"/>
-      <c r="D89" s="255"/>
+      <c r="B89" s="232"/>
+      <c r="C89" s="232"/>
+      <c r="D89" s="232"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="97"/>
-      <c r="B90" s="255"/>
-      <c r="C90" s="255"/>
-      <c r="D90" s="255"/>
+      <c r="B90" s="232"/>
+      <c r="C90" s="232"/>
+      <c r="D90" s="232"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="97"/>
-      <c r="B91" s="255"/>
-      <c r="C91" s="255"/>
-      <c r="D91" s="255"/>
+      <c r="B91" s="232"/>
+      <c r="C91" s="232"/>
+      <c r="D91" s="232"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="97"/>
-      <c r="B92" s="255"/>
-      <c r="C92" s="255"/>
-      <c r="D92" s="255"/>
+      <c r="B92" s="232"/>
+      <c r="C92" s="232"/>
+      <c r="D92" s="232"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="97"/>
-      <c r="B93" s="255"/>
-      <c r="C93" s="255"/>
-      <c r="D93" s="255"/>
+      <c r="B93" s="232"/>
+      <c r="C93" s="232"/>
+      <c r="D93" s="232"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="97"/>
-      <c r="B94" s="255"/>
-      <c r="C94" s="255"/>
-      <c r="D94" s="255"/>
+      <c r="B94" s="232"/>
+      <c r="C94" s="232"/>
+      <c r="D94" s="232"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="97"/>
-      <c r="B95" s="255"/>
-      <c r="C95" s="255"/>
-      <c r="D95" s="255"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="232"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="97"/>
-      <c r="B96" s="255"/>
-      <c r="C96" s="255"/>
-      <c r="D96" s="255"/>
+      <c r="B96" s="232"/>
+      <c r="C96" s="232"/>
+      <c r="D96" s="232"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="97"/>
-      <c r="B97" s="255"/>
-      <c r="C97" s="255"/>
-      <c r="D97" s="255"/>
+      <c r="B97" s="232"/>
+      <c r="C97" s="232"/>
+      <c r="D97" s="232"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="97"/>
-      <c r="B98" s="255"/>
-      <c r="C98" s="255"/>
-      <c r="D98" s="255"/>
+      <c r="B98" s="232"/>
+      <c r="C98" s="232"/>
+      <c r="D98" s="232"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="97"/>
-      <c r="B99" s="255"/>
-      <c r="C99" s="255"/>
-      <c r="D99" s="255"/>
+      <c r="B99" s="232"/>
+      <c r="C99" s="232"/>
+      <c r="D99" s="232"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="97"/>
-      <c r="B100" s="255"/>
-      <c r="C100" s="255"/>
-      <c r="D100" s="255"/>
+      <c r="B100" s="232"/>
+      <c r="C100" s="232"/>
+      <c r="D100" s="232"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="97"/>
-      <c r="B101" s="255"/>
-      <c r="C101" s="255"/>
-      <c r="D101" s="255"/>
+      <c r="B101" s="232"/>
+      <c r="C101" s="232"/>
+      <c r="D101" s="232"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="97"/>
-      <c r="B102" s="255"/>
-      <c r="C102" s="255"/>
-      <c r="D102" s="255"/>
+      <c r="B102" s="232"/>
+      <c r="C102" s="232"/>
+      <c r="D102" s="232"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="97"/>
-      <c r="B103" s="255"/>
-      <c r="C103" s="255"/>
-      <c r="D103" s="255"/>
+      <c r="B103" s="232"/>
+      <c r="C103" s="232"/>
+      <c r="D103" s="232"/>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
@@ -12626,6 +12628,83 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
     <mergeCell ref="B56:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B52:D52"/>
@@ -12650,83 +12729,6 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Logins!A1" tooltip="Logins" display="Logins"/>
@@ -12747,8 +12749,8 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13076,434 +13078,434 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="276" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="303"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="277"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="278" t="s">
         <v>524</v>
       </c>
       <c r="B2" s="143" t="s">
         <v>525</v>
       </c>
-      <c r="C2" s="304" t="s">
+      <c r="C2" s="281" t="s">
         <v>526</v>
       </c>
-      <c r="D2" s="305"/>
-      <c r="E2" s="306"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="283"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="300"/>
+      <c r="A3" s="279"/>
       <c r="B3" s="144" t="s">
         <v>527</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="284" t="s">
         <v>528</v>
       </c>
-      <c r="D3" s="308"/>
-      <c r="E3" s="309"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="286"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="300"/>
+      <c r="A4" s="279"/>
       <c r="B4" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="C4" s="310"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="312"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="289"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="300"/>
+      <c r="A5" s="279"/>
       <c r="B5" s="145" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="313"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="315"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="292"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="300"/>
+      <c r="A6" s="279"/>
       <c r="B6" s="146" t="s">
         <v>531</v>
       </c>
-      <c r="C6" s="316" t="s">
+      <c r="C6" s="293" t="s">
         <v>532</v>
       </c>
-      <c r="D6" s="317"/>
-      <c r="E6" s="318"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="295"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="300"/>
+      <c r="A7" s="279"/>
       <c r="B7" s="146" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="319"/>
-      <c r="D7" s="320"/>
-      <c r="E7" s="321"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="298"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="300"/>
+      <c r="A8" s="279"/>
       <c r="B8" s="146" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="319"/>
-      <c r="D8" s="320"/>
-      <c r="E8" s="321"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="298"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="300"/>
+      <c r="A9" s="279"/>
       <c r="B9" s="146" t="s">
         <v>535</v>
       </c>
-      <c r="C9" s="322"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="324"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="301"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="300"/>
+      <c r="A10" s="279"/>
       <c r="B10" s="145" t="s">
         <v>536</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="304"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="300"/>
+      <c r="A11" s="279"/>
       <c r="B11" s="146" t="s">
         <v>537</v>
       </c>
-      <c r="C11" s="271" t="s">
+      <c r="C11" s="305" t="s">
         <v>538</v>
       </c>
-      <c r="D11" s="272"/>
-      <c r="E11" s="273"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="307"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="300"/>
+      <c r="A12" s="279"/>
       <c r="B12" s="147" t="s">
         <v>539</v>
       </c>
-      <c r="C12" s="274"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="276"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="310"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="300"/>
+      <c r="A13" s="279"/>
       <c r="B13" s="146" t="s">
         <v>540</v>
       </c>
-      <c r="C13" s="274"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="276"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="310"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="301"/>
+      <c r="A14" s="280"/>
       <c r="B14" s="146" t="s">
         <v>541</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="279"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="313"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="295" t="s">
+      <c r="A15" s="314" t="s">
         <v>542</v>
       </c>
       <c r="B15" s="143" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="289"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304"/>
     </row>
     <row r="16" spans="1:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="295"/>
+      <c r="A16" s="314"/>
       <c r="B16" s="144" t="s">
         <v>544</v>
       </c>
-      <c r="C16" s="296" t="s">
+      <c r="C16" s="315" t="s">
         <v>545</v>
       </c>
-      <c r="D16" s="297"/>
-      <c r="E16" s="298"/>
+      <c r="D16" s="316"/>
+      <c r="E16" s="317"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="299" t="s">
+      <c r="A17" s="278" t="s">
         <v>546</v>
       </c>
       <c r="B17" s="145" t="s">
         <v>547</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="304"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="300"/>
+      <c r="A18" s="279"/>
       <c r="B18" s="148" t="s">
         <v>548</v>
       </c>
-      <c r="C18" s="271" t="s">
+      <c r="C18" s="305" t="s">
         <v>549</v>
       </c>
-      <c r="D18" s="272"/>
-      <c r="E18" s="273"/>
+      <c r="D18" s="306"/>
+      <c r="E18" s="307"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="300"/>
+      <c r="A19" s="279"/>
       <c r="B19" s="146" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="274"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="276"/>
+      <c r="C19" s="308"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="310"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="300"/>
+      <c r="A20" s="279"/>
       <c r="B20" s="146" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="277"/>
-      <c r="D20" s="278"/>
-      <c r="E20" s="279"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="313"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="300"/>
+      <c r="A21" s="279"/>
       <c r="B21" s="145" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="304"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="300"/>
+      <c r="A22" s="279"/>
       <c r="B22" s="146" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="280" t="s">
+      <c r="C22" s="318" t="s">
         <v>554</v>
       </c>
-      <c r="D22" s="281"/>
-      <c r="E22" s="282"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="320"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="300"/>
+      <c r="A23" s="279"/>
       <c r="B23" s="146" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="271" t="s">
+      <c r="C23" s="305" t="s">
         <v>556</v>
       </c>
-      <c r="D23" s="272"/>
-      <c r="E23" s="273"/>
+      <c r="D23" s="306"/>
+      <c r="E23" s="307"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="300"/>
+      <c r="A24" s="279"/>
       <c r="B24" s="146" t="s">
         <v>557</v>
       </c>
-      <c r="C24" s="274"/>
-      <c r="D24" s="275"/>
-      <c r="E24" s="276"/>
+      <c r="C24" s="308"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="310"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="300"/>
+      <c r="A25" s="279"/>
       <c r="B25" s="146" t="s">
         <v>558</v>
       </c>
-      <c r="C25" s="274"/>
-      <c r="D25" s="275"/>
-      <c r="E25" s="276"/>
+      <c r="C25" s="308"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="310"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="300"/>
+      <c r="A26" s="279"/>
       <c r="B26" s="146" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="274"/>
-      <c r="D26" s="275"/>
-      <c r="E26" s="276"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="309"/>
+      <c r="E26" s="310"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="300"/>
+      <c r="A27" s="279"/>
       <c r="B27" s="146" t="s">
         <v>560</v>
       </c>
-      <c r="C27" s="274"/>
-      <c r="D27" s="275"/>
-      <c r="E27" s="276"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="310"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="301"/>
+      <c r="A28" s="280"/>
       <c r="B28" s="146" t="s">
         <v>561</v>
       </c>
-      <c r="C28" s="277"/>
-      <c r="D28" s="278"/>
-      <c r="E28" s="279"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="312"/>
+      <c r="E28" s="313"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="283" t="s">
+      <c r="A29" s="322" t="s">
         <v>562</v>
       </c>
       <c r="B29" s="143" t="s">
         <v>563</v>
       </c>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
-      <c r="E29" s="286"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="325"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="283"/>
+      <c r="A30" s="322"/>
       <c r="B30" s="145" t="s">
         <v>564</v>
       </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="304"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="283"/>
+      <c r="A31" s="322"/>
       <c r="B31" s="149" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="290" t="s">
+      <c r="C31" s="326" t="s">
         <v>566</v>
       </c>
-      <c r="D31" s="291"/>
-      <c r="E31" s="292"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="328"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="283"/>
+      <c r="A32" s="322"/>
       <c r="B32" s="146" t="s">
         <v>567</v>
       </c>
-      <c r="C32" s="293"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="294"/>
+      <c r="C32" s="329"/>
+      <c r="D32" s="309"/>
+      <c r="E32" s="330"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="283"/>
+      <c r="A33" s="322"/>
       <c r="B33" s="146" t="s">
         <v>568</v>
       </c>
-      <c r="C33" s="293"/>
-      <c r="D33" s="275"/>
-      <c r="E33" s="294"/>
+      <c r="C33" s="329"/>
+      <c r="D33" s="309"/>
+      <c r="E33" s="330"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="283"/>
+      <c r="A34" s="322"/>
       <c r="B34" s="146" t="s">
         <v>569</v>
       </c>
-      <c r="C34" s="293"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="294"/>
+      <c r="C34" s="329"/>
+      <c r="D34" s="309"/>
+      <c r="E34" s="330"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="283"/>
+      <c r="A35" s="322"/>
       <c r="B35" s="146" t="s">
         <v>570</v>
       </c>
-      <c r="C35" s="293"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="294"/>
+      <c r="C35" s="329"/>
+      <c r="D35" s="309"/>
+      <c r="E35" s="330"/>
     </row>
     <row r="36" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="283"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="149" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="271" t="s">
+      <c r="C36" s="305" t="s">
         <v>572</v>
       </c>
-      <c r="D36" s="272"/>
-      <c r="E36" s="273"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="283"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="146" t="s">
         <v>573</v>
       </c>
-      <c r="C37" s="274"/>
-      <c r="D37" s="275"/>
-      <c r="E37" s="276"/>
+      <c r="C37" s="308"/>
+      <c r="D37" s="309"/>
+      <c r="E37" s="310"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="283"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="146" t="s">
         <v>568</v>
       </c>
-      <c r="C38" s="274"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="276"/>
+      <c r="C38" s="308"/>
+      <c r="D38" s="309"/>
+      <c r="E38" s="310"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="283"/>
+      <c r="A39" s="322"/>
       <c r="B39" s="146" t="s">
         <v>569</v>
       </c>
-      <c r="C39" s="277"/>
-      <c r="D39" s="278"/>
-      <c r="E39" s="279"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="313"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="283"/>
+      <c r="A40" s="322"/>
       <c r="B40" s="144" t="s">
         <v>574</v>
       </c>
-      <c r="C40" s="280" t="s">
+      <c r="C40" s="318" t="s">
         <v>575</v>
       </c>
-      <c r="D40" s="281"/>
-      <c r="E40" s="282"/>
+      <c r="D40" s="319"/>
+      <c r="E40" s="320"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="270" t="s">
+      <c r="A41" s="321" t="s">
         <v>576</v>
       </c>
       <c r="B41" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="C41" s="271" t="s">
+      <c r="C41" s="305" t="s">
         <v>578</v>
       </c>
-      <c r="D41" s="272"/>
-      <c r="E41" s="273"/>
+      <c r="D41" s="306"/>
+      <c r="E41" s="307"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="270"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="146" t="s">
         <v>579</v>
       </c>
-      <c r="C42" s="274"/>
-      <c r="D42" s="275"/>
-      <c r="E42" s="276"/>
+      <c r="C42" s="308"/>
+      <c r="D42" s="309"/>
+      <c r="E42" s="310"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="270"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="146" t="s">
         <v>580</v>
       </c>
-      <c r="C43" s="274"/>
-      <c r="D43" s="275"/>
-      <c r="E43" s="276"/>
+      <c r="C43" s="308"/>
+      <c r="D43" s="309"/>
+      <c r="E43" s="310"/>
     </row>
     <row r="44" spans="1:5" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="270"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="146" t="s">
         <v>581</v>
       </c>
-      <c r="C44" s="277"/>
-      <c r="D44" s="278"/>
-      <c r="E44" s="279"/>
+      <c r="C44" s="311"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="313"/>
     </row>
     <row r="45" spans="1:5" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="150" t="s">
@@ -13512,11 +13514,11 @@
       <c r="B45" s="151" t="s">
         <v>583</v>
       </c>
-      <c r="C45" s="280" t="s">
+      <c r="C45" s="318" t="s">
         <v>584</v>
       </c>
-      <c r="D45" s="281"/>
-      <c r="E45" s="282"/>
+      <c r="D45" s="319"/>
+      <c r="E45" s="320"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="152"/>
@@ -13526,14 +13528,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E14"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="C41:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E35"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
@@ -13543,15 +13546,14 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E28"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C41:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E35"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13566,7 +13568,7 @@
   <dimension ref="A75:Z75"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13575,34 +13577,34 @@
   </cols>
   <sheetData>
     <row r="75" spans="1:26" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A75" s="192" t="s">
+      <c r="A75" s="191" t="s">
         <v>759</v>
       </c>
-      <c r="B75" s="193"/>
-      <c r="C75" s="193"/>
-      <c r="D75" s="193"/>
-      <c r="E75" s="193"/>
-      <c r="F75" s="193"/>
-      <c r="G75" s="193"/>
-      <c r="H75" s="193"/>
-      <c r="I75" s="193"/>
-      <c r="J75" s="193"/>
-      <c r="K75" s="193"/>
-      <c r="L75" s="193"/>
-      <c r="M75" s="193"/>
-      <c r="N75" s="193"/>
-      <c r="O75" s="193"/>
-      <c r="P75" s="193"/>
-      <c r="Q75" s="193"/>
-      <c r="R75" s="193"/>
-      <c r="S75" s="193"/>
-      <c r="T75" s="193"/>
-      <c r="U75" s="193"/>
-      <c r="V75" s="193"/>
-      <c r="W75" s="193"/>
-      <c r="X75" s="193"/>
-      <c r="Y75" s="193"/>
-      <c r="Z75" s="193"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="192"/>
+      <c r="D75" s="192"/>
+      <c r="E75" s="192"/>
+      <c r="F75" s="192"/>
+      <c r="G75" s="192"/>
+      <c r="H75" s="192"/>
+      <c r="I75" s="192"/>
+      <c r="J75" s="192"/>
+      <c r="K75" s="192"/>
+      <c r="L75" s="192"/>
+      <c r="M75" s="192"/>
+      <c r="N75" s="192"/>
+      <c r="O75" s="192"/>
+      <c r="P75" s="192"/>
+      <c r="Q75" s="192"/>
+      <c r="R75" s="192"/>
+      <c r="S75" s="192"/>
+      <c r="T75" s="192"/>
+      <c r="U75" s="192"/>
+      <c r="V75" s="192"/>
+      <c r="W75" s="192"/>
+      <c r="X75" s="192"/>
+      <c r="Y75" s="192"/>
+      <c r="Z75" s="192"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13633,10 +13635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="331" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="354"/>
+      <c r="B1" s="331"/>
       <c r="C1" s="54" t="s">
         <v>341</v>
       </c>
@@ -13654,369 +13656,349 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="126" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="337" t="s">
+      <c r="B2" s="333" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="337"/>
-      <c r="D2" s="353" t="s">
+      <c r="C2" s="333"/>
+      <c r="D2" s="338" t="s">
         <v>429</v>
       </c>
-      <c r="E2" s="353"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
       <c r="I2" s="132" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="356" t="s">
+      <c r="B3" s="334" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="357"/>
-      <c r="D3" s="338" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="351" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="340"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="353"/>
       <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="356"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="341" t="s">
+      <c r="B4" s="334"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="354" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="343"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
+      <c r="G4" s="355"/>
+      <c r="H4" s="356"/>
       <c r="I4" s="129"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="356"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="341" t="s">
+      <c r="B5" s="334"/>
+      <c r="C5" s="335"/>
+      <c r="D5" s="354" t="s">
         <v>432</v>
       </c>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="343"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="356"/>
       <c r="I5" s="129"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="356"/>
-      <c r="C6" s="357"/>
-      <c r="D6" s="344" t="s">
+      <c r="B6" s="334"/>
+      <c r="C6" s="335"/>
+      <c r="D6" s="357" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="346"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="359"/>
       <c r="I6" s="130"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="356" t="s">
+      <c r="B7" s="334" t="s">
         <v>401</v>
       </c>
-      <c r="C7" s="357"/>
-      <c r="D7" s="347" t="s">
+      <c r="C7" s="335"/>
+      <c r="D7" s="345" t="s">
         <v>436</v>
       </c>
-      <c r="E7" s="348"/>
-      <c r="F7" s="348"/>
-      <c r="G7" s="348"/>
-      <c r="H7" s="349"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="346"/>
+      <c r="H7" s="347"/>
       <c r="I7" s="128"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="356"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="331" t="s">
+      <c r="B8" s="334"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="339" t="s">
         <v>435</v>
       </c>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="333"/>
+      <c r="E8" s="340"/>
+      <c r="F8" s="340"/>
+      <c r="G8" s="340"/>
+      <c r="H8" s="341"/>
       <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="356"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="334" t="s">
+      <c r="B9" s="334"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="342" t="s">
         <v>437</v>
       </c>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="336"/>
+      <c r="E9" s="343"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="343"/>
+      <c r="H9" s="344"/>
       <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="356" t="s">
+      <c r="B10" s="334" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="357"/>
-      <c r="D10" s="350" t="s">
+      <c r="C10" s="335"/>
+      <c r="D10" s="348" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
-      <c r="G10" s="351"/>
-      <c r="H10" s="352"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="350"/>
       <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="356"/>
-      <c r="C11" s="357"/>
-      <c r="D11" s="331" t="s">
+      <c r="B11" s="334"/>
+      <c r="C11" s="335"/>
+      <c r="D11" s="339" t="s">
         <v>438</v>
       </c>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="333"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="340"/>
+      <c r="H11" s="341"/>
       <c r="I11" s="129"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="356"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="331" t="s">
+      <c r="B12" s="334"/>
+      <c r="C12" s="335"/>
+      <c r="D12" s="339" t="s">
         <v>439</v>
       </c>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
-      <c r="H12" s="333"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+      <c r="G12" s="340"/>
+      <c r="H12" s="341"/>
       <c r="I12" s="129"/>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="356"/>
-      <c r="C13" s="357"/>
-      <c r="D13" s="331" t="s">
+      <c r="B13" s="334"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="339" t="s">
         <v>440</v>
       </c>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="333"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="340"/>
+      <c r="G13" s="340"/>
+      <c r="H13" s="341"/>
       <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="356"/>
-      <c r="C14" s="357"/>
-      <c r="D14" s="331" t="s">
+      <c r="B14" s="334"/>
+      <c r="C14" s="335"/>
+      <c r="D14" s="339" t="s">
         <v>441</v>
       </c>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="333"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="340"/>
+      <c r="G14" s="340"/>
+      <c r="H14" s="341"/>
       <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="356"/>
-      <c r="C15" s="357"/>
-      <c r="D15" s="331" t="s">
+      <c r="B15" s="334"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="339" t="s">
         <v>442</v>
       </c>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="333"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="340"/>
+      <c r="G15" s="340"/>
+      <c r="H15" s="341"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="356"/>
-      <c r="C16" s="357"/>
-      <c r="D16" s="331" t="s">
+      <c r="B16" s="334"/>
+      <c r="C16" s="335"/>
+      <c r="D16" s="339" t="s">
         <v>448</v>
       </c>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="332"/>
-      <c r="H16" s="333"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="340"/>
+      <c r="G16" s="340"/>
+      <c r="H16" s="341"/>
       <c r="I16" s="129"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="356"/>
-      <c r="C17" s="357"/>
-      <c r="D17" s="331" t="s">
+      <c r="B17" s="334"/>
+      <c r="C17" s="335"/>
+      <c r="D17" s="339" t="s">
         <v>449</v>
       </c>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
-      <c r="G17" s="332"/>
-      <c r="H17" s="333"/>
+      <c r="E17" s="340"/>
+      <c r="F17" s="340"/>
+      <c r="G17" s="340"/>
+      <c r="H17" s="341"/>
       <c r="I17" s="129"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="356"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="331" t="s">
+      <c r="B18" s="334"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="339" t="s">
         <v>450</v>
       </c>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="333"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="340"/>
+      <c r="G18" s="340"/>
+      <c r="H18" s="341"/>
       <c r="I18" s="129"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="356"/>
-      <c r="C19" s="357"/>
-      <c r="D19" s="334" t="s">
+      <c r="B19" s="334"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="342" t="s">
         <v>451</v>
       </c>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
-      <c r="H19" s="336"/>
+      <c r="E19" s="343"/>
+      <c r="F19" s="343"/>
+      <c r="G19" s="343"/>
+      <c r="H19" s="344"/>
       <c r="I19" s="130"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="358" t="s">
+      <c r="B20" s="336" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="359"/>
-      <c r="D20" s="347" t="s">
+      <c r="C20" s="337"/>
+      <c r="D20" s="345" t="s">
         <v>452</v>
       </c>
-      <c r="E20" s="348"/>
-      <c r="F20" s="348"/>
-      <c r="G20" s="348"/>
-      <c r="H20" s="349"/>
+      <c r="E20" s="346"/>
+      <c r="F20" s="346"/>
+      <c r="G20" s="346"/>
+      <c r="H20" s="347"/>
       <c r="I20" s="129"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="358"/>
-      <c r="C21" s="359"/>
-      <c r="D21" s="331" t="s">
+      <c r="B21" s="336"/>
+      <c r="C21" s="337"/>
+      <c r="D21" s="339" t="s">
         <v>453</v>
       </c>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="333"/>
+      <c r="E21" s="340"/>
+      <c r="F21" s="340"/>
+      <c r="G21" s="340"/>
+      <c r="H21" s="341"/>
       <c r="I21" s="129"/>
     </row>
     <row r="22" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="358"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="334" t="s">
+      <c r="B22" s="336"/>
+      <c r="C22" s="337"/>
+      <c r="D22" s="342" t="s">
         <v>454</v>
       </c>
-      <c r="E22" s="335"/>
-      <c r="F22" s="335"/>
-      <c r="G22" s="335"/>
-      <c r="H22" s="336"/>
+      <c r="E22" s="343"/>
+      <c r="F22" s="343"/>
+      <c r="G22" s="343"/>
+      <c r="H22" s="344"/>
       <c r="I22" s="130"/>
     </row>
     <row r="23" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="356" t="s">
+      <c r="B23" s="334" t="s">
         <v>423</v>
       </c>
-      <c r="C23" s="357"/>
-      <c r="D23" s="350" t="s">
+      <c r="C23" s="335"/>
+      <c r="D23" s="348" t="s">
         <v>455</v>
       </c>
-      <c r="E23" s="351"/>
-      <c r="F23" s="351"/>
-      <c r="G23" s="351"/>
-      <c r="H23" s="352"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="349"/>
+      <c r="H23" s="350"/>
       <c r="I23" s="129"/>
     </row>
     <row r="24" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="356"/>
-      <c r="C24" s="357"/>
-      <c r="D24" s="334" t="s">
+      <c r="B24" s="334"/>
+      <c r="C24" s="335"/>
+      <c r="D24" s="342" t="s">
         <v>456</v>
       </c>
-      <c r="E24" s="335"/>
-      <c r="F24" s="335"/>
-      <c r="G24" s="335"/>
-      <c r="H24" s="336"/>
+      <c r="E24" s="343"/>
+      <c r="F24" s="343"/>
+      <c r="G24" s="343"/>
+      <c r="H24" s="344"/>
       <c r="I24" s="130"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="356" t="s">
+      <c r="B25" s="334" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="357"/>
-      <c r="D25" s="347" t="s">
+      <c r="C25" s="335"/>
+      <c r="D25" s="345" t="s">
         <v>457</v>
       </c>
-      <c r="E25" s="348"/>
-      <c r="F25" s="348"/>
-      <c r="G25" s="348"/>
-      <c r="H25" s="349"/>
+      <c r="E25" s="346"/>
+      <c r="F25" s="346"/>
+      <c r="G25" s="346"/>
+      <c r="H25" s="347"/>
       <c r="I25" s="129"/>
     </row>
     <row r="26" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="356"/>
-      <c r="C26" s="357"/>
-      <c r="D26" s="331" t="s">
+      <c r="B26" s="334"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="339" t="s">
         <v>458</v>
       </c>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="333"/>
+      <c r="E26" s="340"/>
+      <c r="F26" s="340"/>
+      <c r="G26" s="340"/>
+      <c r="H26" s="341"/>
       <c r="I26" s="129"/>
     </row>
     <row r="27" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="356"/>
-      <c r="C27" s="357"/>
-      <c r="D27" s="334" t="s">
+      <c r="B27" s="334"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="342" t="s">
         <v>459</v>
       </c>
-      <c r="E27" s="335"/>
-      <c r="F27" s="335"/>
-      <c r="G27" s="335"/>
-      <c r="H27" s="336"/>
+      <c r="E27" s="343"/>
+      <c r="F27" s="343"/>
+      <c r="G27" s="343"/>
+      <c r="H27" s="344"/>
       <c r="I27" s="129"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="355" t="s">
+      <c r="B28" s="332" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="337" t="s">
+      <c r="C28" s="332"/>
+      <c r="D28" s="333" t="s">
         <v>425</v>
       </c>
-      <c r="E28" s="337"/>
-      <c r="F28" s="337"/>
-      <c r="G28" s="337"/>
-      <c r="H28" s="337"/>
+      <c r="E28" s="333"/>
+      <c r="F28" s="333"/>
+      <c r="G28" s="333"/>
+      <c r="H28" s="333"/>
       <c r="I28" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="B10:C19"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
@@ -14033,6 +14015,26 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="B10:C19"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3:I24 I25:I27">
@@ -14052,14 +14054,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -14218,7 +14220,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -14256,8 +14258,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
@@ -14295,7 +14297,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -14333,8 +14335,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -14372,7 +14374,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -14410,8 +14412,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -14449,7 +14451,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -14487,8 +14489,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -14526,7 +14528,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -14564,8 +14566,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>88</v>
       </c>
@@ -14603,7 +14605,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -14641,8 +14643,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -14680,7 +14682,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -14718,8 +14720,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>104</v>
       </c>
@@ -14795,8 +14797,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -14834,7 +14836,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
@@ -14872,10 +14874,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -14913,7 +14915,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -14951,8 +14953,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>88</v>
       </c>
@@ -14990,7 +14992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -15028,8 +15030,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
@@ -15105,8 +15107,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -15144,7 +15146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>114</v>
       </c>
@@ -15182,8 +15184,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -15291,8 +15293,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -15330,7 +15332,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -15368,8 +15370,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>88</v>
       </c>
@@ -15407,7 +15409,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -15445,8 +15447,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -15484,7 +15486,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
@@ -15522,8 +15524,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
@@ -15561,7 +15563,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
@@ -15599,8 +15601,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
@@ -15676,8 +15678,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
@@ -15715,7 +15717,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -15753,8 +15755,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>88</v>
       </c>
@@ -15792,7 +15794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
@@ -15830,8 +15832,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>88</v>
       </c>
@@ -15869,7 +15871,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
@@ -15907,8 +15909,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
@@ -15946,7 +15948,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
@@ -15984,8 +15986,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>88</v>
       </c>
@@ -16023,7 +16025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -16061,28 +16063,28 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="7:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:11" x14ac:dyDescent="0.2">
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="7:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="19"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="7:11" x14ac:dyDescent="0.2"/>
     <row r="86" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="7:11" hidden="1" x14ac:dyDescent="0.2"/>
@@ -16135,13 +16137,7 @@
     <row r="135" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="136" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A7:L85">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Rodrigo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:L85"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
